--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_DIVISOR_POR_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_DIVISOR_POR_ETIQUETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Documentacion\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Yasiel Final\Casos de Prueba\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="4395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="4395" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="90">
   <si>
     <t>Reglas de confidencialidad</t>
   </si>
@@ -45,9 +45,6 @@
   </si>
   <si>
     <t>Escenario</t>
-  </si>
-  <si>
-    <t>Variable 1</t>
   </si>
   <si>
     <t>Respuesta del sistema</t>
@@ -94,9 +91,6 @@
     <t>Control del Documento</t>
   </si>
   <si>
-    <t>Título: Criterios para definir proveedores válidos de requisitos</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -146,6 +140,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Alta; </t>
     </r>
@@ -162,6 +157,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Baja; </t>
     </r>
@@ -178,6 +174,7 @@
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> Modificación</t>
     </r>
@@ -204,12 +201,6 @@
     <t>A</t>
   </si>
   <si>
-    <t>Creacion del documento</t>
-  </si>
-  <si>
-    <t>Clasificación: Uso interno de la Universidad La Salle</t>
-  </si>
-  <si>
     <t>Forma de distribución: PDF Digital</t>
   </si>
   <si>
@@ -219,9 +210,6 @@
     <t>Fecha: 02/04/19</t>
   </si>
   <si>
-    <t>EC 1.1 Ingreso de un Archivo no HTML</t>
-  </si>
-  <si>
     <t>Archivo HTML</t>
   </si>
   <si>
@@ -231,72 +219,39 @@
     <t>SC AUDATA_REQ_HTML_Divisor_Por_Etiqueta</t>
   </si>
   <si>
-    <t>EC 1.2 Ingreso de un Archivo HTML</t>
-  </si>
-  <si>
-    <t>Cuando el usuario no ingresa como entrada un archivo HTML para su lectura.</t>
-  </si>
-  <si>
     <t>Cuando el usuario ingresa como entrada un archivo HTML para su lectura.</t>
   </si>
   <si>
     <t xml:space="preserve">Cuando el usuario ingresa un archivo HTML que no contiene etiquetas a extraer. </t>
   </si>
   <si>
-    <t>EC 1.3 Archivo HTML no Contiene Etiquetas</t>
-  </si>
-  <si>
     <t>Cuando en el contenido de una etiqueta  exista  imágenes, caracteres especiales o líneas de código de programación.</t>
   </si>
   <si>
-    <t>EC 1.4 Caracteres Especiales, Imagenes y Codigo Dentro del  contenido de una Etiqueta</t>
-  </si>
-  <si>
     <t>Cuando haya hipervínculos existentes dentro del contenido de una etiqueta.</t>
   </si>
   <si>
-    <t>EC 1.5 Hipervinculos dentro del Contenido de una Etiqueta</t>
-  </si>
-  <si>
-    <t>EC 1.6 Contenido existente de una Etiqueta</t>
-  </si>
-  <si>
     <t>Cuando existe contenido dentro una etiqueta.</t>
   </si>
   <si>
-    <t>El sistema debe mostrar un mensaje de alerta, diciendo: “Por favor ingrese un archivo HTML”.</t>
-  </si>
-  <si>
     <t>Ingresar un archivo HTML.</t>
   </si>
   <si>
     <t>String</t>
   </si>
   <si>
-    <t>Tiene que ser un archivo con extension .html.</t>
-  </si>
-  <si>
     <t>Ingresar un archivo no HTML.</t>
   </si>
   <si>
     <t>Ingresar un archivo HTML y leerlo.</t>
   </si>
   <si>
-    <t>EC 1.7 Etiqueta se repite</t>
-  </si>
-  <si>
-    <t>EC 1.8 No hay  Contenido dentro de la Etiqueta</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cuando existe una etiqueta cuyo nombre(ID) sea igual a otra </t>
   </si>
   <si>
     <t>Cuando no existe contenido dentro de una etiqueta, ya sea por que se omitió dicho contenido o no.</t>
   </si>
   <si>
-    <t>El sistema debe mostrar una lista de etiquetas extraidas del archivo HTML ingresado.</t>
-  </si>
-  <si>
     <t>El sistema debe mostrar un mensaje, diciendo:" No se encontraron etiquetas".</t>
   </si>
   <si>
@@ -306,13 +261,112 @@
     <t>El sistema debe convertir los hipervínculos en simples palabras, eliminando el subrayado de dicha palabra.</t>
   </si>
   <si>
-    <t>El sistema debe procesar el archivo HTML ingresado y retornar dicho archivo dividido por etiquetas.</t>
-  </si>
-  <si>
-    <t>El sistema debe mostrar todas las etiquetas que se le pide, aun así haya repetidas.</t>
-  </si>
-  <si>
-    <t>El sistema arrojará un mensaje mostrando la lista de etiquetas que no posean contenido leíble, “Las siguientes etiquetas no poseen contenido.</t>
+    <t>Título: Casos de Prueba para AUDATA_REQ_HTML_Divisor_Por_Etiqueta</t>
+  </si>
+  <si>
+    <t>Creación del documento</t>
+  </si>
+  <si>
+    <t>1,0</t>
+  </si>
+  <si>
+    <t>Clasificación: Universidad La Salle</t>
+  </si>
+  <si>
+    <t>EC 1.1 No ingresar ningún archivo</t>
+  </si>
+  <si>
+    <t>EC 1.2 Ingresar un Archivo HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuando el usuario no ingresa un archivo para su lectura. </t>
+  </si>
+  <si>
+    <t>ArchivoBueno</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de alerta: "Ingrese un archivo HTML”.</t>
+  </si>
+  <si>
+    <t>No ingresar ningún archivo.</t>
+  </si>
+  <si>
+    <t>EC 1.3 Ingresar un Archivo no HTML</t>
+  </si>
+  <si>
+    <t>Cuando el usuario ingresa como entrada un archivo no HTML para su lectura.</t>
+  </si>
+  <si>
+    <t>ArchivoMalo</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar el siguiente mensaje de error: "Ingrese un archivo con extensión HTML".</t>
+  </si>
+  <si>
+    <t>ArchivoSinContenidoEnEtiqueta</t>
+  </si>
+  <si>
+    <t>ArchivoEtiquetasRepetidas</t>
+  </si>
+  <si>
+    <t>ArchivoSinEtiquetas</t>
+  </si>
+  <si>
+    <t>Archivo con extensión .html.</t>
+  </si>
+  <si>
+    <t>Archivo con extension no .html (.pdf,.csv,etc).</t>
+  </si>
+  <si>
+    <t>Archivo con extensión .html y que tenga etiquetas repetidas.</t>
+  </si>
+  <si>
+    <t>Archivo con extension .html y que en su(s) etiqueta(s) no haya  contenido o su contenido fue omitido.</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>Archivo con extensión .html que no tenga ninguna etiqueta.</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar una lista de Divisionitems (etiquetas) extraidas del archivo HTML ingresado.</t>
+  </si>
+  <si>
+    <t>El sistema debe procesar el archivo HTML ingresado y retornar dicho archivo dividido por Divisionitems (etiquetas).</t>
+  </si>
+  <si>
+    <t>El sistema debe mostrar todas los Divisionitems (etiquetas) que se le pide, aun así haya repetidas.</t>
+  </si>
+  <si>
+    <t>El sistema arrojará un mensaje mostrando la lista de Divisionitems (etiquetas) que no posean contenido leíble, “Las siguientes etiquetas no poseen contenido.</t>
+  </si>
+  <si>
+    <t>DivisionItem</t>
+  </si>
+  <si>
+    <t>String[* ]</t>
+  </si>
+  <si>
+    <t>Valor a retornar.</t>
+  </si>
+  <si>
+    <t>EC 1.4 Archivo HTML no Contiene Etiquetas</t>
+  </si>
+  <si>
+    <t>EC 1.5 Caracteres Especiales, Imagenes y Codigo Dentro del  contenido de una Etiqueta</t>
+  </si>
+  <si>
+    <t>EC 1.6 Hipervinculos dentro del Contenido de una Etiqueta</t>
+  </si>
+  <si>
+    <t>EC 1.7 Contenido existente de una Etiqueta</t>
+  </si>
+  <si>
+    <t>EC 1.8 Etiqueta se repite</t>
+  </si>
+  <si>
+    <t>EC 1.9 No hay  Contenido dentro de la Etiqueta</t>
   </si>
 </sst>
 </file>
@@ -327,15 +381,18 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -449,7 +506,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -783,10 +840,40 @@
     </border>
     <border>
       <left style="medium">
+        <color rgb="FF1620F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1620F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1620F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF1620F2"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF0000FF"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1620F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
         <color rgb="FF0000FF"/>
       </left>
       <right style="medium">
-        <color rgb="FF1620F2"/>
+        <color rgb="FF0000FF"/>
       </right>
       <top style="medium">
         <color rgb="FF1620F2"/>
@@ -794,13 +881,57 @@
       <bottom style="medium">
         <color rgb="FF1620F2"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF1620F2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF0000FF"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF1620F2"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF1620F2"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="99">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -825,23 +956,8 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -853,6 +969,9 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -865,176 +984,228 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1069,7 +1240,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>876300</xdr:colOff>
+      <xdr:colOff>316006</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>333375</xdr:rowOff>
     </xdr:to>
@@ -1420,14 +1591,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39:J39"/>
+    <sheetView topLeftCell="B22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="2" width="9.140625" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" customWidth="1"/>
     <col min="5" max="5" width="9" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="7" max="7" width="21.7109375" customWidth="1"/>
@@ -1583,13 +1755,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="48" t="s">
-        <v>29</v>
-      </c>
-      <c r="G14" s="48"/>
-      <c r="H14" s="48"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
+      <c r="F14" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="43"/>
+      <c r="H14" s="43"/>
+      <c r="I14" s="43"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1597,11 +1769,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
-      <c r="H15" s="48"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="43"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1609,11 +1781,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1621,11 +1793,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="48"/>
-      <c r="G17" s="48"/>
-      <c r="H17" s="48"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1634,7 +1806,7 @@
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
       <c r="F18" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
@@ -1643,11 +1815,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1669,25 +1841,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="49" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="49"/>
-      <c r="D21" s="49"/>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="G21" s="50"/>
-      <c r="H21" s="50"/>
+      <c r="B21" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="45"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="45"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="51" t="s">
-        <v>31</v>
-      </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
+      <c r="B22" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1709,85 +1881,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="31"/>
+      <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="I25" s="44"/>
-      <c r="J25" s="44"/>
+      <c r="B25" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="32"/>
+      <c r="D25" s="39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46"/>
-      <c r="I26" s="46"/>
-      <c r="J26" s="47"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="41"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+      <c r="F26" s="41"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="42"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
+      <c r="B27" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="32"/>
+      <c r="D27" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="I27" s="32"/>
+      <c r="J27" s="32"/>
     </row>
     <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="I28" s="37"/>
-      <c r="J28" s="37"/>
+      <c r="B28" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" s="32"/>
+      <c r="D28" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1827,12 +1999,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="42" t="s">
+      <c r="B32" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="42"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
+      <c r="C32" s="37"/>
+      <c r="D32" s="37"/>
+      <c r="E32" s="37"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -1841,11 +2013,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
+      <c r="B33" s="83" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -1855,11 +2027,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
+      <c r="B34" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -1881,11 +2053,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
+      <c r="B36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -1911,52 +2083,52 @@
         <v>1</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="36" t="s">
-        <v>26</v>
-      </c>
-      <c r="G38" s="36"/>
-      <c r="H38" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I38" s="36"/>
-      <c r="J38" s="36"/>
+      <c r="F38" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31"/>
     </row>
     <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="14">
-        <v>1</v>
-      </c>
-      <c r="C39" s="14" t="s">
+      <c r="B39" s="82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D39" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="81">
+        <v>43557</v>
+      </c>
+      <c r="F39" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E39" s="15">
-        <v>43557</v>
-      </c>
-      <c r="F39" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="G39" s="37"/>
-      <c r="H39" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="I39" s="38"/>
-      <c r="J39" s="38"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="80" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39" s="33"/>
+      <c r="J39" s="33"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
       <c r="B40" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
@@ -2005,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24:E25"/>
+    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2040,10 +2212,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="79" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="84"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2098,11 +2270,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="84"/>
-      <c r="D7" s="84"/>
+      <c r="B7" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2135,16 +2307,16 @@
         <v>3</v>
       </c>
       <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="F9" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -2152,23 +2324,23 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" s="72" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" s="76" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="78" t="s">
+      <c r="B10" s="67" t="s">
+        <v>58</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>60</v>
       </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="25"/>
+      <c r="D10" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="73" t="s">
+        <v>63</v>
+      </c>
+      <c r="G10" s="25"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
@@ -2176,13 +2348,13 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="25"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="21"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
@@ -2190,13 +2362,13 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="73"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="25"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="21"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
@@ -2205,53 +2377,63 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="80"/>
-      <c r="C13" s="80"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="25"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="21"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="1:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="72" t="s">
+      <c r="B14" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="72" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="F14" s="78" t="s">
-        <v>57</v>
-      </c>
-      <c r="G14" s="25"/>
-      <c r="H14" s="25"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="1:13" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="81"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="25"/>
+      <c r="B15" s="86" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="87" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="84" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="89" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
@@ -2259,23 +2441,23 @@
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="72" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="72" t="s">
+      <c r="B16" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="C16" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="72" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="76" t="s">
-        <v>67</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="25"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
@@ -2283,13 +2465,13 @@
     </row>
     <row r="17" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="80"/>
-      <c r="C17" s="80"/>
-      <c r="D17" s="81"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="B17" s="75"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -2297,23 +2479,23 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="72" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="72" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" s="74" t="s">
+      <c r="B18" s="67" t="s">
+        <v>85</v>
+      </c>
+      <c r="C18" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="76" t="s">
-        <v>68</v>
-      </c>
-      <c r="F18" s="78" t="s">
+      <c r="D18" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
+      <c r="E18" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -2321,13 +2503,13 @@
     </row>
     <row r="19" spans="1:12" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="81"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="25"/>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -2335,23 +2517,23 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="72" t="s">
+      <c r="B20" s="67" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="69" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="72" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="F20" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="G20" s="25"/>
-      <c r="H20" s="25"/>
+      <c r="F20" s="73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -2359,13 +2541,13 @@
     </row>
     <row r="21" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="70"/>
+      <c r="E21" s="72"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -2373,23 +2555,23 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="65" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="67" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="55" t="s">
+      <c r="B22" s="60" t="s">
+        <v>87</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="54" t="s">
         <v>61</v>
       </c>
-      <c r="G22" s="27"/>
-      <c r="H22" s="21"/>
+      <c r="E22" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="23"/>
+      <c r="H22" s="16"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -2397,13 +2579,13 @@
     </row>
     <row r="23" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="68"/>
-      <c r="D23" s="69"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="26"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="64"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="22"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -2411,23 +2593,23 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="57" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G24" s="27"/>
-      <c r="H24" s="27"/>
+      <c r="B24" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="52" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E24" s="52" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
@@ -2435,13 +2617,13 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="64"/>
-      <c r="F25" s="61"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
+      <c r="B25" s="56"/>
+      <c r="C25" s="57"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2449,23 +2631,23 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="55" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="D26" s="59" t="s">
-        <v>42</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
+      <c r="B26" s="50" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="52" t="s">
+        <v>50</v>
+      </c>
+      <c r="D26" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="48" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
@@ -2473,13 +2655,13 @@
     </row>
     <row r="27" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="56"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="53"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
@@ -2487,13 +2669,13 @@
     </row>
     <row r="28" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
@@ -2501,13 +2683,13 @@
     </row>
     <row r="29" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="22"/>
-      <c r="H29" s="22"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
@@ -2613,8 +2795,8 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="1"/>
-      <c r="B37" s="20" t="s">
-        <v>9</v>
+      <c r="B37" s="15" t="s">
+        <v>8</v>
       </c>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -2740,24 +2922,19 @@
       <c r="L45" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="37">
     <mergeCell ref="B16:B17"/>
     <mergeCell ref="C16:C17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E10:E13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="D14:D15"/>
     <mergeCell ref="B18:B19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="D18:D19"/>
@@ -2793,10 +2970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2813,68 +2990,132 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="84" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
+      <c r="B3" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="D5" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="E5" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="28" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="34">
+    <row r="6" spans="1:6" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
+      <c r="C6" s="93" t="s">
+        <v>61</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F6" s="95" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="29">
+        <v>2</v>
+      </c>
+      <c r="C7" s="93" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" s="89" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="92">
+        <v>3</v>
+      </c>
+      <c r="C8" s="94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="89" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="92">
+        <v>4</v>
+      </c>
+      <c r="C9" s="94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="90" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="94" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="89" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="92">
+        <v>5</v>
+      </c>
+      <c r="C10" s="91" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="92" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="92" t="s">
+        <v>75</v>
+      </c>
+      <c r="F10" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="97">
+        <v>6</v>
+      </c>
+      <c r="C11" s="98" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" s="98" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="F11" s="96" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_DIVISOR_POR_ETIQUETA.xlsx
+++ b/Pruebas/DisenhoCasoPrueba/CP-Audata-Text-HTML/CP_AUDATA_REQ_HTML_DIVISOR_POR_ETIQUETA.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USUARIO\Desktop\Yasiel Final\Casos de Prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROSA\Desktop\documentacion_git\Documentacion-proyectoAdmin\Pruebas\DisenhoCasoPrueba\CP-Audata-Text-HTML\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="4395" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14595" windowHeight="4395" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="5" r:id="rId1"/>
@@ -372,7 +372,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -1002,167 +1002,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1206,6 +1050,162 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1755,13 +1755,13 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
-      <c r="F14" s="43" t="s">
+      <c r="F14" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="43"/>
-      <c r="I14" s="43"/>
-      <c r="J14" s="43"/>
+      <c r="G14" s="47"/>
+      <c r="H14" s="47"/>
+      <c r="I14" s="47"/>
+      <c r="J14" s="47"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
@@ -1769,11 +1769,11 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="43"/>
-      <c r="I15" s="43"/>
-      <c r="J15" s="43"/>
+      <c r="F15" s="47"/>
+      <c r="G15" s="47"/>
+      <c r="H15" s="47"/>
+      <c r="I15" s="47"/>
+      <c r="J15" s="47"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
@@ -1781,11 +1781,11 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-      <c r="H16" s="43"/>
-      <c r="I16" s="43"/>
-      <c r="J16" s="43"/>
+      <c r="F16" s="47"/>
+      <c r="G16" s="47"/>
+      <c r="H16" s="47"/>
+      <c r="I16" s="47"/>
+      <c r="J16" s="47"/>
     </row>
     <row r="17" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4"/>
@@ -1793,11 +1793,11 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="43"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="43"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="47"/>
+      <c r="J17" s="47"/>
     </row>
     <row r="18" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A18" s="4"/>
@@ -1815,11 +1815,11 @@
     </row>
     <row r="19" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A19" s="4"/>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
       <c r="E19" s="4"/>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
@@ -1841,25 +1841,25 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="4"/>
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="45"/>
-      <c r="F21" s="45"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="45"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
       <c r="G22" s="4"/>
@@ -1881,85 +1881,85 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="31" t="s">
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="31" t="s">
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53"/>
+      <c r="H24" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
+      <c r="I24" s="53"/>
+      <c r="J24" s="53"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="39" t="s">
+      <c r="C25" s="55"/>
+      <c r="D25" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39" t="s">
+      <c r="E25" s="56"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56" t="s">
         <v>30</v>
       </c>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="41"/>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="B26" s="57"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
-      <c r="B27" s="32" t="s">
+      <c r="B27" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="39" t="s">
+      <c r="C27" s="55"/>
+      <c r="D27" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="32" t="s">
+      <c r="E27" s="56"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="55" t="s">
         <v>19</v>
       </c>
-      <c r="I27" s="32"/>
-      <c r="J27" s="32"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="34" t="s">
+      <c r="C28" s="55"/>
+      <c r="D28" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="32" t="s">
+      <c r="E28" s="61"/>
+      <c r="F28" s="61"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="55" t="s">
         <v>36</v>
       </c>
-      <c r="I28" s="32"/>
-      <c r="J28" s="32"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
@@ -1999,12 +1999,12 @@
     </row>
     <row r="32" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
-      <c r="B32" s="37" t="s">
+      <c r="B32" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
       <c r="F32" s="4"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
@@ -2013,11 +2013,11 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
-      <c r="B33" s="83" t="s">
+      <c r="B33" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="54"/>
+      <c r="D33" s="54"/>
       <c r="E33" s="4"/>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
@@ -2027,11 +2027,11 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
-      <c r="B34" s="38" t="s">
+      <c r="B34" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="54"/>
+      <c r="D34" s="54"/>
       <c r="E34" s="4"/>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
@@ -2053,11 +2053,11 @@
     </row>
     <row r="36" spans="1:10" ht="18" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="30"/>
-      <c r="D36" s="30"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="48"/>
       <c r="E36" s="4"/>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
@@ -2077,7 +2077,7 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
     </row>
-    <row r="38" spans="1:10" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="4"/>
       <c r="B38" s="5" t="s">
         <v>1</v>
@@ -2091,39 +2091,39 @@
       <c r="E38" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F38" s="31" t="s">
+      <c r="F38" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="G38" s="31"/>
-      <c r="H38" s="31" t="s">
+      <c r="G38" s="53"/>
+      <c r="H38" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="I38" s="31"/>
-      <c r="J38" s="31"/>
+      <c r="I38" s="53"/>
+      <c r="J38" s="53"/>
     </row>
     <row r="39" spans="1:10" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="4"/>
-      <c r="B39" s="82" t="s">
+      <c r="B39" s="31" t="s">
         <v>56</v>
       </c>
-      <c r="C39" s="82" t="s">
+      <c r="C39" s="31" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="82" t="s">
+      <c r="D39" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="E39" s="81">
+      <c r="E39" s="30">
         <v>43557</v>
       </c>
-      <c r="F39" s="33" t="s">
+      <c r="F39" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="33"/>
-      <c r="H39" s="80" t="s">
+      <c r="G39" s="65"/>
+      <c r="H39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="I39" s="33"/>
-      <c r="J39" s="33"/>
+      <c r="I39" s="65"/>
+      <c r="J39" s="65"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="4"/>
@@ -2141,13 +2141,11 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F14:J17"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:G25"/>
@@ -2161,11 +2159,13 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="F14:J17"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="H24:J24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2177,8 +2177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M45"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2212,10 +2212,10 @@
       <c r="M2" s="2"/>
     </row>
     <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
@@ -2270,11 +2270,11 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="79" t="s">
+      <c r="B7" s="78" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="79"/>
-      <c r="D7" s="79"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="78"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
@@ -2324,19 +2324,19 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="67" t="s">
+      <c r="B10" s="79" t="s">
         <v>58</v>
       </c>
-      <c r="C10" s="67" t="s">
+      <c r="C10" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="F10" s="73" t="s">
+      <c r="F10" s="76" t="s">
         <v>63</v>
       </c>
       <c r="G10" s="25"/>
@@ -2348,11 +2348,11 @@
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="68"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="74"/>
+      <c r="B11" s="67"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="69"/>
+      <c r="E11" s="71"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="25"/>
       <c r="H11" s="21"/>
       <c r="I11" s="2"/>
@@ -2362,11 +2362,11 @@
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="68"/>
-      <c r="C12" s="68"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="74"/>
+      <c r="B12" s="67"/>
+      <c r="C12" s="67"/>
+      <c r="D12" s="69"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="25"/>
       <c r="H12" s="21"/>
       <c r="I12" s="2"/>
@@ -2377,11 +2377,11 @@
     </row>
     <row r="13" spans="1:13" ht="35.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="70"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="74"/>
       <c r="G13" s="25"/>
       <c r="H13" s="21"/>
       <c r="I13" s="2"/>
@@ -2392,10 +2392,10 @@
     </row>
     <row r="14" spans="1:13" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="33" t="s">
         <v>59</v>
       </c>
-      <c r="C14" s="85" t="s">
+      <c r="C14" s="33" t="s">
         <v>40</v>
       </c>
       <c r="D14" s="14" t="s">
@@ -2417,19 +2417,19 @@
     </row>
     <row r="15" spans="1:13" ht="56.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
-      <c r="B15" s="86" t="s">
+      <c r="B15" s="34" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="87" t="s">
+      <c r="C15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="84" t="s">
+      <c r="D15" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="36" t="s">
         <v>67</v>
       </c>
-      <c r="F15" s="89" t="s">
+      <c r="F15" s="37" t="s">
         <v>47</v>
       </c>
       <c r="G15" s="21"/>
@@ -2441,19 +2441,19 @@
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="68" t="s">
+      <c r="B16" s="67" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="68" t="s">
+      <c r="C16" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="D16" s="70" t="s">
+      <c r="D16" s="69" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="72" t="s">
+      <c r="E16" s="71" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="74" t="s">
+      <c r="F16" s="73" t="s">
         <v>48</v>
       </c>
       <c r="G16" s="21"/>
@@ -2465,11 +2465,11 @@
     </row>
     <row r="17" spans="1:12" ht="63.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
-      <c r="B17" s="75"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="74"/>
       <c r="G17" s="21"/>
       <c r="H17" s="21"/>
       <c r="I17" s="2"/>
@@ -2479,19 +2479,19 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="79" t="s">
         <v>85</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="69" t="s">
+      <c r="D18" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E18" s="71" t="s">
+      <c r="E18" s="77" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="73" t="s">
+      <c r="F18" s="76" t="s">
         <v>48</v>
       </c>
       <c r="G18" s="21"/>
@@ -2503,11 +2503,11 @@
     </row>
     <row r="19" spans="1:12" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="72"/>
+      <c r="F19" s="74"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="2"/>
@@ -2517,19 +2517,19 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
-      <c r="B20" s="67" t="s">
+      <c r="B20" s="79" t="s">
         <v>86</v>
       </c>
-      <c r="C20" s="67" t="s">
+      <c r="C20" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D20" s="69" t="s">
+      <c r="D20" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="71" t="s">
+      <c r="E20" s="77" t="s">
         <v>53</v>
       </c>
-      <c r="F20" s="73" t="s">
+      <c r="F20" s="76" t="s">
         <v>48</v>
       </c>
       <c r="G20" s="21"/>
@@ -2541,11 +2541,11 @@
     </row>
     <row r="21" spans="1:12" ht="115.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="74"/>
+      <c r="B21" s="67"/>
+      <c r="C21" s="67"/>
+      <c r="D21" s="69"/>
+      <c r="E21" s="71"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="21"/>
       <c r="H21" s="21"/>
       <c r="I21" s="2"/>
@@ -2555,19 +2555,19 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="60" t="s">
+      <c r="B22" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="54" t="s">
+      <c r="D22" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="52" t="s">
+      <c r="E22" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="F22" s="50" t="s">
+      <c r="F22" s="88" t="s">
         <v>48</v>
       </c>
       <c r="G22" s="23"/>
@@ -2579,11 +2579,11 @@
     </row>
     <row r="23" spans="1:12" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="64"/>
-      <c r="E23" s="65"/>
-      <c r="F23" s="66"/>
+      <c r="B23" s="81"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="85"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="89"/>
       <c r="G23" s="23"/>
       <c r="H23" s="22"/>
       <c r="I23" s="2"/>
@@ -2593,19 +2593,19 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="52" t="s">
+      <c r="C24" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="54" t="s">
+      <c r="D24" s="84" t="s">
         <v>69</v>
       </c>
-      <c r="E24" s="52" t="s">
+      <c r="E24" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="50" t="s">
+      <c r="F24" s="88" t="s">
         <v>48</v>
       </c>
       <c r="G24" s="23"/>
@@ -2617,11 +2617,11 @@
     </row>
     <row r="25" spans="1:12" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="56"/>
-      <c r="C25" s="57"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="56"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="91"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="90"/>
       <c r="G25" s="23"/>
       <c r="H25" s="23"/>
       <c r="I25" s="2"/>
@@ -2631,19 +2631,19 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="88" t="s">
         <v>89</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="D26" s="54" t="s">
+      <c r="D26" s="84" t="s">
         <v>68</v>
       </c>
-      <c r="E26" s="48" t="s">
+      <c r="E26" s="94" t="s">
         <v>80</v>
       </c>
-      <c r="F26" s="50" t="s">
+      <c r="F26" s="88" t="s">
         <v>48</v>
       </c>
       <c r="G26" s="17"/>
@@ -2655,11 +2655,11 @@
     </row>
     <row r="27" spans="1:12" ht="72" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="53"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="51"/>
+      <c r="B27" s="96"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="95"/>
+      <c r="F27" s="96"/>
       <c r="G27" s="17"/>
       <c r="H27" s="17"/>
       <c r="I27" s="1"/>
@@ -2923,11 +2923,31 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="F10:F13"/>
     <mergeCell ref="E10:E13"/>
@@ -2935,31 +2955,11 @@
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C10:C13"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
@@ -2972,7 +2972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2990,12 +2990,12 @@
       <c r="A1" s="12"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="79" t="s">
+      <c r="B3" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -3019,16 +3019,16 @@
       <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="93" t="s">
+      <c r="C6" s="41" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="90" t="s">
+      <c r="D6" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="94" t="s">
+      <c r="E6" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F6" s="95" t="s">
+      <c r="F6" s="43" t="s">
         <v>71</v>
       </c>
     </row>
@@ -3036,84 +3036,84 @@
       <c r="B7" s="29">
         <v>2</v>
       </c>
-      <c r="C7" s="93" t="s">
+      <c r="C7" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="90" t="s">
+      <c r="D7" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="94" t="s">
+      <c r="E7" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="89" t="s">
+      <c r="F7" s="37" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="92">
+      <c r="B8" s="40">
         <v>3</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="D8" s="90" t="s">
+      <c r="D8" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F8" s="89" t="s">
+      <c r="F8" s="37" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="51.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="92">
+      <c r="B9" s="40">
         <v>4</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="D9" s="90" t="s">
+      <c r="D9" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="94" t="s">
+      <c r="E9" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="F9" s="89" t="s">
+      <c r="F9" s="37" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="92">
+      <c r="B10" s="40">
         <v>5</v>
       </c>
-      <c r="C10" s="91" t="s">
+      <c r="C10" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="D10" s="92" t="s">
+      <c r="D10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="92" t="s">
+      <c r="E10" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="F10" s="89" t="s">
+      <c r="F10" s="37" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="97">
+      <c r="B11" s="45">
         <v>6</v>
       </c>
-      <c r="C11" s="98" t="s">
+      <c r="C11" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="D11" s="98" t="s">
+      <c r="D11" s="46" t="s">
         <v>82</v>
       </c>
-      <c r="E11" s="96" t="s">
+      <c r="E11" s="44" t="s">
         <v>75</v>
       </c>
-      <c r="F11" s="96" t="s">
+      <c r="F11" s="44" t="s">
         <v>83</v>
       </c>
     </row>
